--- a/pipe/log_data.xlsx
+++ b/pipe/log_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:32:49 +0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,19 +513,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:32:49 +0000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:01 +0000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,29 +587,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:01 +0000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +619,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:02 +0000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:02 +0000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -713,29 +713,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:02 +0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:02 +0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:02 +0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +829,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:03 +0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -876,34 +876,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:03 +0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:03 +0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,39 +955,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:03 +0000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,39 +997,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:04 +0000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,39 +1039,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:56 +0000</t>
+          <t>15/May/2024:07:33:04 +0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1081,39 +1081,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:04 +0000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,39 +1123,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:05 +0000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1175,29 +1175,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:05 +0000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,39 +1207,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:06 +0000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,29 +1259,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:06 +0000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,81 +1291,81 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:08 +0000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:08 +0000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,29 +1385,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:09 +0000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,39 +1417,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:10 +0000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:10 +0000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,81 +1501,81 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:14 +0000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:14 +0000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1595,29 +1595,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:14 +0000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,39 +1627,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:14 +0000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,39 +1669,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:14 +0000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1721,29 +1721,29 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:14 +0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1753,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:16 +0000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1805,29 +1805,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:16 +0000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,81 +1837,81 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:18 +0000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:18 +0000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,29 +1931,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>4498</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:18 +0000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,81 +1963,81 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:23 +0000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:23 +0000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,29 +2057,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:23 +0000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2089,81 +2089,81 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:25 +0000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261/reviews</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:26 +0000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2183,29 +2183,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:26 +0000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,81 +2215,81 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:27 +0000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261/reviews</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:28 +0000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,29 +2309,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:28 +0000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:28 +0000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,29 +2393,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:28 +0000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,39 +2425,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:29 +0000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,29 +2477,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:29 +0000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:30 +0000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,29 +2561,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>5557</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:30 +0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,81 +2593,81 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:31 +0000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261?_method=DELETE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:31 +0000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2687,29 +2687,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:31 +0000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:34 +0000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground/664465433029b0ed39e9d261</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:34 +0000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:34 +0000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,39 +2845,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:35 +0000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2897,29 +2897,29 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:35 +0000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,39 +2929,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:36 +0000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,17 +2971,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/camasdcas</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>404</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2991,19 +2991,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:37 +0000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/camasdcas</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:38 +0000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/camasdcas</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:33:38 +0000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,39 +3097,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>HACKER</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3208,12 +3208,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:57 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3250,12 +3250,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3292,12 +3292,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3334,12 +3334,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:07 +0000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3460,12 +3460,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3502,12 +3502,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3544,12 +3544,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3586,12 +3586,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3628,12 +3628,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3712,12 +3712,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3796,12 +3796,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3880,12 +3880,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3922,12 +3922,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4006,12 +4006,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4048,12 +4048,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4090,12 +4090,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4216,12 +4216,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4258,12 +4258,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4300,12 +4300,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4342,12 +4342,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4426,12 +4426,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4552,12 +4552,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4594,12 +4594,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4636,12 +4636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4720,12 +4720,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4762,12 +4762,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4804,12 +4804,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4888,12 +4888,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4930,12 +4930,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4972,12 +4972,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5056,12 +5056,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5098,12 +5098,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5140,12 +5140,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:58 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:08 +0000</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5308,12 +5308,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5350,12 +5350,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5392,12 +5392,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5434,12 +5434,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5476,12 +5476,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5518,12 +5518,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5560,12 +5560,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5602,12 +5602,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5644,12 +5644,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5686,12 +5686,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5728,12 +5728,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5770,12 +5770,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5812,12 +5812,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5896,12 +5896,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5980,12 +5980,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6022,12 +6022,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6106,12 +6106,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6148,12 +6148,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6190,12 +6190,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6232,12 +6232,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6274,12 +6274,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6316,12 +6316,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6400,12 +6400,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6442,12 +6442,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6484,12 +6484,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6568,12 +6568,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6610,12 +6610,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6652,12 +6652,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6694,12 +6694,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6736,12 +6736,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6778,12 +6778,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6820,12 +6820,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6904,12 +6904,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6946,12 +6946,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6988,12 +6988,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:09 +0000</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7030,12 +7030,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7072,12 +7072,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7114,12 +7114,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7156,12 +7156,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7240,12 +7240,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7282,12 +7282,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7324,12 +7324,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>14/May/2024:18:44:59 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7366,12 +7366,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7408,12 +7408,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7450,12 +7450,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7492,12 +7492,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7534,12 +7534,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7576,12 +7576,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7618,12 +7618,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7702,12 +7702,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7744,12 +7744,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7786,12 +7786,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7828,12 +7828,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7870,12 +7870,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7912,12 +7912,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7954,12 +7954,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7996,12 +7996,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8038,12 +8038,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8080,12 +8080,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8122,12 +8122,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8164,12 +8164,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8206,12 +8206,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8248,12 +8248,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8290,12 +8290,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8332,12 +8332,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8374,12 +8374,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8416,12 +8416,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8500,12 +8500,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8542,12 +8542,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8584,12 +8584,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8626,12 +8626,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8668,12 +8668,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8710,12 +8710,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8752,12 +8752,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8794,12 +8794,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:10 +0000</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8836,12 +8836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8878,12 +8878,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8920,12 +8920,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8962,12 +8962,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9004,12 +9004,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9046,12 +9046,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9088,12 +9088,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9130,12 +9130,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9172,12 +9172,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9214,12 +9214,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9298,12 +9298,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9340,12 +9340,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9382,12 +9382,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:00 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9424,12 +9424,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9466,12 +9466,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9508,12 +9508,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9550,12 +9550,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9592,12 +9592,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9634,12 +9634,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9718,12 +9718,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9760,12 +9760,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9802,12 +9802,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9844,12 +9844,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9886,12 +9886,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9928,12 +9928,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9970,12 +9970,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -10012,12 +10012,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -10096,12 +10096,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -10138,12 +10138,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -10180,12 +10180,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10222,12 +10222,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10264,12 +10264,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10306,12 +10306,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10348,12 +10348,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10390,12 +10390,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10432,12 +10432,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10474,12 +10474,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10516,12 +10516,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10558,12 +10558,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10600,12 +10600,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:11 +0000</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10642,12 +10642,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10684,12 +10684,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10726,12 +10726,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10768,12 +10768,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10810,12 +10810,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10894,12 +10894,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10936,12 +10936,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10978,12 +10978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -11020,12 +11020,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -11062,12 +11062,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -11104,12 +11104,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -11146,12 +11146,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -11188,12 +11188,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11230,12 +11230,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11272,12 +11272,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11314,12 +11314,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11356,12 +11356,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11398,12 +11398,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:01 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11440,12 +11440,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11482,12 +11482,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11524,12 +11524,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11566,12 +11566,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11608,12 +11608,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11650,12 +11650,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11692,12 +11692,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11734,12 +11734,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11776,12 +11776,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11818,12 +11818,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11860,12 +11860,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11902,12 +11902,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11944,12 +11944,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11986,12 +11986,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -12028,12 +12028,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -12070,12 +12070,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -12112,12 +12112,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -12154,12 +12154,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -12196,12 +12196,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12238,12 +12238,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12280,12 +12280,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12322,12 +12322,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12364,12 +12364,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12406,12 +12406,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12448,12 +12448,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12490,12 +12490,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12532,12 +12532,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12574,12 +12574,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:12 +0000</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12616,12 +12616,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12658,12 +12658,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12700,12 +12700,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -12742,12 +12742,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -12784,12 +12784,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -12826,12 +12826,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -12868,12 +12868,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -12910,12 +12910,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -12952,12 +12952,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -12994,12 +12994,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -13036,12 +13036,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -13078,12 +13078,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -13120,12 +13120,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -13162,12 +13162,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -13204,12 +13204,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -13246,12 +13246,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -13288,12 +13288,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:02 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -13330,12 +13330,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:50 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -13350,12 +13350,12 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -13365,19 +13365,19 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:50 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -13387,39 +13387,39 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:51 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -13429,39 +13429,39 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:51 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -13471,39 +13471,39 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:51 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -13513,39 +13513,39 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:52 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13565,29 +13565,29 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:52 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -13597,39 +13597,39 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:52 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -13639,39 +13639,39 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:52 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -13681,39 +13681,39 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:52 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -13723,39 +13723,39 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:53 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -13765,39 +13765,39 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:53 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -13807,39 +13807,39 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:53 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -13849,39 +13849,39 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:53 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -13891,39 +13891,39 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>14/May/2024:18:45:53 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -13933,39 +13933,39 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>14/May/2024:18:46:26 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -13975,39 +13975,39 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>14/May/2024:18:46:26 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -14017,39 +14017,39 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>172.21.0.1</t>
+          <t>172.29.0.1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>14/May/2024:18:46:26 +0000</t>
+          <t>15/May/2024:07:39:13 +0000</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -14059,1665 +14059,27 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:27 +0000</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:28 +0000</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:28 +0000</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:28 +0000</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:28 +0000</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:28 +0000</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:29 +0000</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:30 +0000</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:30 +0000</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:30 +0000</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:30 +0000</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:30 +0000</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:31 +0000</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:31 +0000</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:31 +0000</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:31 +0000</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>http://localhost/</t>
-        </is>
-      </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:31 +0000</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>http://localhost/</t>
-        </is>
-      </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:31 +0000</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:32 +0000</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:32 +0000</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:32 +0000</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:32 +0000</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>/campground</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:32 +0000</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:33 +0000</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>/campground/new</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:33 +0000</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>http://localhost/campground</t>
-        </is>
-      </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>172.21.0.1</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>14/May/2024:18:46:33 +0000</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>/js/validateForms.js</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>http://localhost/login</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>

--- a/pipe/log_data.xlsx
+++ b/pipe/log_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/May/2024:07:32:49 +0000</t>
+          <t>15/May/2024:12:40:24 +0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -520,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/May/2024:07:32:49 +0000</t>
+          <t>15/May/2024:12:40:24 +0000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>745</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:01 +0000</t>
+          <t>15/May/2024:12:40:24 +0000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,17 +577,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/favicon.ico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>404</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>2438</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -604,12 +604,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:01 +0000</t>
+          <t>15/May/2024:12:40:33 +0000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,22 +619,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,12 +646,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:02 +0000</t>
+          <t>15/May/2024:12:40:33 +0000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -688,12 +688,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:02 +0000</t>
+          <t>15/May/2024:12:40:33 +0000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,22 +703,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,12 +730,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:02 +0000</t>
+          <t>15/May/2024:12:40:34 +0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -772,12 +772,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:02 +0000</t>
+          <t>15/May/2024:12:40:34 +0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,12 +814,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:02 +0000</t>
+          <t>15/May/2024:12:40:34 +0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -856,12 +856,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:03 +0000</t>
+          <t>15/May/2024:12:40:34 +0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:03 +0000</t>
+          <t>15/May/2024:12:40:35 +0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,12 +940,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:03 +0000</t>
+          <t>15/May/2024:12:40:35 +0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,12 +982,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:03 +0000</t>
+          <t>15/May/2024:12:40:36 +0000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1024,12 +1024,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:04 +0000</t>
+          <t>15/May/2024:12:40:36 +0000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,22 +1039,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,37 +1066,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:04 +0000</t>
+          <t>15/May/2024:12:40:42 +0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:04 +0000</t>
+          <t>15/May/2024:12:40:42 +0000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,22 +1123,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:05 +0000</t>
+          <t>15/May/2024:12:40:42 +0000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,22 +1165,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/register</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,12 +1192,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:05 +0000</t>
+          <t>15/May/2024:12:40:43 +0000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,22 +1207,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,12 +1234,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:06 +0000</t>
+          <t>15/May/2024:12:40:43 +0000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1254,17 +1254,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:06 +0000</t>
+          <t>15/May/2024:12:40:43 +0000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1318,32 +1318,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:08 +0000</t>
+          <t>15/May/2024:12:40:44 +0000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:08 +0000</t>
+          <t>15/May/2024:12:40:44 +0000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,22 +1375,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1402,12 +1402,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:09 +0000</t>
+          <t>15/May/2024:12:40:44 +0000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1444,12 +1444,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:10 +0000</t>
+          <t>15/May/2024:12:40:44 +0000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/register</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1486,12 +1486,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:10 +0000</t>
+          <t>15/May/2024:12:40:45 +0000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1528,37 +1528,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:14 +0000</t>
+          <t>15/May/2024:12:40:45 +0000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/register</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,12 +1570,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:14 +0000</t>
+          <t>15/May/2024:12:40:45 +0000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1612,12 +1612,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:14 +0000</t>
+          <t>15/May/2024:12:40:46 +0000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,22 +1627,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,12 +1654,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:14 +0000</t>
+          <t>15/May/2024:12:40:46 +0000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,22 +1669,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1696,17 +1696,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:14 +0000</t>
+          <t>15/May/2024:12:40:49 +0000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1738,12 +1738,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:14 +0000</t>
+          <t>15/May/2024:12:40:49 +0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,17 +1753,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4498</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1780,12 +1780,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:16 +0000</t>
+          <t>15/May/2024:12:40:49 +0000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:16 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,81 +1837,81 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:18 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:18 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,29 +1931,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:18 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,81 +1963,81 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://localhost/campground/new</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:23 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://localhost/campground/new</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:23 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,29 +2057,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4580</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://localhost/campground/new</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:23 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2089,81 +2089,81 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:25 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261/reviews</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:26 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2183,29 +2183,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5182</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:26 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,81 +2215,81 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:27 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261/reviews</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:28 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,29 +2309,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5789</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:28 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:28 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,29 +2393,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4284</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:28 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,39 +2425,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://localhost/campground/new</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:29 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,29 +2477,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://localhost/campground/new</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:29 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:30 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,29 +2561,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5557</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:30 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,81 +2593,81 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:31 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261?_method=DELETE</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:31 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2687,29 +2687,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://localhost/campground/664465433029b0ed39e9d261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:31 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:34 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/campground/664465433029b0ed39e9d261</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:34 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:34 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,39 +2845,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:35 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2897,29 +2897,29 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2216</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:35 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,39 +2929,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:36 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,17 +2971,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/camasdcas</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2991,19 +2991,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:37 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://localhost/camasdcas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:38 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://localhost/camasdcas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>15/May/2024:07:33:38 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,39 +3097,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:03 +0000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3208,12 +3208,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3250,12 +3250,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3292,12 +3292,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3334,12 +3334,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:07 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3460,12 +3460,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3502,12 +3502,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3544,12 +3544,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3586,12 +3586,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3628,12 +3628,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3712,12 +3712,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3796,12 +3796,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3880,12 +3880,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3922,12 +3922,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4006,12 +4006,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4048,12 +4048,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4090,12 +4090,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4216,12 +4216,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4258,12 +4258,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4300,12 +4300,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4342,12 +4342,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4426,12 +4426,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4552,12 +4552,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4594,12 +4594,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4636,12 +4636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4720,12 +4720,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4762,12 +4762,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4804,12 +4804,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4888,12 +4888,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4930,12 +4930,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4972,12 +4972,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5056,12 +5056,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5098,12 +5098,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5140,12 +5140,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:04 +0000</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:08 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5308,12 +5308,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5350,12 +5350,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5392,12 +5392,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5434,12 +5434,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5476,12 +5476,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5518,12 +5518,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5560,12 +5560,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5602,12 +5602,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5644,12 +5644,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5686,12 +5686,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5728,12 +5728,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5770,12 +5770,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5812,12 +5812,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5896,12 +5896,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5980,12 +5980,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6022,12 +6022,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6106,12 +6106,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6148,12 +6148,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6190,12 +6190,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6232,12 +6232,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6274,12 +6274,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6316,12 +6316,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6400,12 +6400,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6442,12 +6442,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6484,12 +6484,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6568,12 +6568,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6610,12 +6610,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6652,12 +6652,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6694,12 +6694,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6736,12 +6736,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6778,12 +6778,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6820,12 +6820,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6904,12 +6904,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:05 +0000</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6946,12 +6946,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6988,12 +6988,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:09 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7030,12 +7030,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7072,12 +7072,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7114,12 +7114,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7156,12 +7156,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7240,12 +7240,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7282,12 +7282,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7324,12 +7324,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7366,12 +7366,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7408,12 +7408,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7450,12 +7450,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7492,12 +7492,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7534,12 +7534,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7576,12 +7576,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7618,12 +7618,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7702,12 +7702,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7744,12 +7744,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7786,12 +7786,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7828,12 +7828,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7870,12 +7870,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7912,12 +7912,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7954,12 +7954,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7996,12 +7996,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8038,12 +8038,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8080,12 +8080,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8122,12 +8122,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8164,12 +8164,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8206,12 +8206,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8248,12 +8248,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8290,12 +8290,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8332,12 +8332,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8374,12 +8374,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8416,12 +8416,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8500,12 +8500,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8542,12 +8542,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8584,12 +8584,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8626,12 +8626,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8668,12 +8668,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:06 +0000</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8710,12 +8710,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8752,12 +8752,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8794,12 +8794,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:10 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8836,12 +8836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8878,12 +8878,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8920,12 +8920,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8962,12 +8962,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9004,12 +9004,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9046,12 +9046,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9088,12 +9088,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9130,12 +9130,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9172,12 +9172,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9214,12 +9214,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9298,12 +9298,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9340,12 +9340,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9382,12 +9382,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9424,12 +9424,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9466,12 +9466,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9508,12 +9508,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9550,12 +9550,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9592,12 +9592,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9634,12 +9634,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9718,12 +9718,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9760,12 +9760,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9802,12 +9802,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9844,12 +9844,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9886,12 +9886,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9928,12 +9928,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9970,12 +9970,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -10012,12 +10012,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -10096,12 +10096,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -10138,12 +10138,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -10180,12 +10180,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10222,12 +10222,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10264,12 +10264,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10306,12 +10306,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10348,12 +10348,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:07 +0000</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10390,12 +10390,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10432,12 +10432,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10474,12 +10474,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10516,12 +10516,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10558,12 +10558,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10600,12 +10600,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:11 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10642,12 +10642,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10684,12 +10684,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10726,12 +10726,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10768,12 +10768,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10810,12 +10810,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10894,12 +10894,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10936,12 +10936,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10978,12 +10978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -11020,12 +11020,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -11062,12 +11062,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -11104,12 +11104,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -11146,12 +11146,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -11188,12 +11188,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11230,12 +11230,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11272,12 +11272,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11314,12 +11314,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11356,12 +11356,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11398,12 +11398,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11440,12 +11440,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11482,12 +11482,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11524,12 +11524,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11566,12 +11566,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11608,12 +11608,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11650,12 +11650,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11692,12 +11692,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11734,12 +11734,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11776,12 +11776,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11818,12 +11818,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11860,12 +11860,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11902,12 +11902,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11944,12 +11944,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11986,12 +11986,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -12028,12 +12028,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -12070,12 +12070,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -12112,12 +12112,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -12154,12 +12154,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -12196,12 +12196,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12238,12 +12238,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:08 +0000</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12280,12 +12280,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12322,12 +12322,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12364,12 +12364,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12406,12 +12406,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12448,12 +12448,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12490,12 +12490,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12532,12 +12532,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12574,12 +12574,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:12 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12616,12 +12616,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12658,12 +12658,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12700,12 +12700,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -12742,12 +12742,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -12784,12 +12784,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -12826,12 +12826,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -12868,12 +12868,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -12910,12 +12910,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -12952,12 +12952,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -12994,12 +12994,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -13036,12 +13036,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -13078,12 +13078,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -13120,12 +13120,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -13162,12 +13162,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -13204,12 +13204,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -13246,12 +13246,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -13288,12 +13288,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -13330,12 +13330,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -13372,12 +13372,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -13414,12 +13414,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -13456,12 +13456,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -13498,12 +13498,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -13540,12 +13540,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -13582,12 +13582,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -13624,12 +13624,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -13666,12 +13666,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -13708,12 +13708,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -13750,12 +13750,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -13792,12 +13792,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -13834,12 +13834,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -13876,12 +13876,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -13918,12 +13918,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -13960,12 +13960,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -14002,12 +14002,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -14044,12 +14044,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>172.29.0.1</t>
+          <t>172.19.0.1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>15/May/2024:07:39:13 +0000</t>
+          <t>15/May/2024:12:42:09 +0000</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -14078,6 +14078,2148 @@
         </is>
       </c>
       <c r="H325" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:09 +0000</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:09 +0000</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:09 +0000</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:10 +0000</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:11 +0000</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:11 +0000</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:11 +0000</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:11 +0000</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>HACKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>172.19.0.1</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>15/May/2024:12:42:11 +0000</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
         <is>
           <t>HACKER</t>
         </is>

--- a/pipe/log_data.xlsx
+++ b/pipe/log_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H376"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:24 +0000</t>
+          <t>20/May/2024:05:54:46 +0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:24 +0000</t>
+          <t>20/May/2024:05:54:47 +0000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,34 +540,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:24 +0000</t>
+          <t>20/May/2024:05:59:22 +0000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/favicon.ico</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2438</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:33 +0000</t>
+          <t>20/May/2024:05:59:22 +0000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +619,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:33 +0000</t>
+          <t>20/May/2024:05:59:22 +0000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:33 +0000</t>
+          <t>20/May/2024:05:59:47 +0000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,19 +723,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:34 +0000</t>
+          <t>20/May/2024:05:59:47 +0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,81 +745,81 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:34 +0000</t>
+          <t>20/May/2024:05:59:53 +0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/register</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:34 +0000</t>
+          <t>20/May/2024:05:59:53 +0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +829,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>/campground</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/register</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:34 +0000</t>
+          <t>20/May/2024:05:59:53 +0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:35 +0000</t>
+          <t>20/May/2024:05:59:55 +0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/campground</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>http://localhost/campground</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:35 +0000</t>
+          <t>20/May/2024:05:59:55 +0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -970,66 +970,66 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:36 +0000</t>
+          <t>20/May/2024:06:00:01 +0000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/register</t>
+          <t>/login</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:36 +0000</t>
+          <t>20/May/2024:06:00:01 +0000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,86 +1039,86 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground/new</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4498</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/login</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:42 +0000</t>
+          <t>20/May/2024:06:00:01 +0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/register</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:42 +0000</t>
+          <t>20/May/2024:06:00:14 +0000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1128,34 +1128,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://localhost/register</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:42 +0000</t>
+          <t>20/May/2024:06:00:14 +0000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,39 +1165,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/campground/664ae6ee2c6726918805393f</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/campground/new</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:43 +0000</t>
+          <t>20/May/2024:06:00:14 +0000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,39 +1207,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/js/validateForms.js</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>http://localhost/campground/664ae6ee2c6726918805393f</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:43 +0000</t>
+          <t>20/May/2024:06:00:34 +0000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,39 +1249,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/campwkdfgviksuf</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>404</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:43 +0000</t>
+          <t>20/May/2024:06:00:34 +0000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1306,24 +1306,24 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campwkdfgviksuf</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:44 +0000</t>
+          <t>20/May/2024:06:00:35 +0000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1343,29 +1343,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>http://localhost/campwkdfgviksuf</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:44 +0000</t>
+          <t>20/May/2024:06:00:35 +0000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1395,19 +1395,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/125.0.0.0 Safari/537.36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:44 +0000</t>
+          <t>20/May/2024:06:00:58 +0000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1422,34 +1422,34 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://localhost/campground</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64; rv:126.0) Gecko/20100101 Firefox/126.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:44 +0000</t>
+          <t>20/May/2024:06:00:58 +0000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1479,19 +1479,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>Mozilla/5.0 (X11; Linux x86_64; rv:126.0) Gecko/20100101 Firefox/126.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:45 +0000</t>
+          <t>20/May/2024:06:01:37 +0000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1501,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:45 +0000</t>
+          <t>20/May/2024:06:01:37 +0000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://localhost/</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:45 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,39 +1585,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:46 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1637,29 +1637,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:46 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,81 +1669,81 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:49 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/login</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:49 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/campground/new</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1763,29 +1763,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://localhost/login</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15/May/2024:12:40:49 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/js/validateForms.js</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://localhost/campground/new</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+          <t>HACKER</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1864,12 +1864,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1906,12 +1906,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1948,12 +1948,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1990,12 +1990,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2032,12 +2032,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2116,12 +2116,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2158,12 +2158,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2200,12 +2200,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2242,12 +2242,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2368,12 +2368,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2410,12 +2410,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2452,12 +2452,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2536,12 +2536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2578,12 +2578,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2620,12 +2620,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2662,12 +2662,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2704,12 +2704,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2746,12 +2746,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2788,12 +2788,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2830,12 +2830,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2914,12 +2914,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2956,12 +2956,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2998,12 +2998,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3082,12 +3082,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3124,12 +3124,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:03 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3208,12 +3208,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3250,12 +3250,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3292,12 +3292,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3334,12 +3334,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3460,12 +3460,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:38 +0000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3502,12 +3502,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3544,12 +3544,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3586,12 +3586,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3628,12 +3628,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3712,12 +3712,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3796,12 +3796,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3880,12 +3880,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3922,12 +3922,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4006,12 +4006,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4048,12 +4048,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4090,12 +4090,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4216,12 +4216,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4258,12 +4258,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4300,12 +4300,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4342,12 +4342,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4426,12 +4426,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4552,12 +4552,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4594,12 +4594,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4636,12 +4636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4720,12 +4720,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4762,12 +4762,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4804,12 +4804,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4846,12 +4846,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4888,12 +4888,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4930,12 +4930,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4972,12 +4972,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5056,12 +5056,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5098,12 +5098,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5140,12 +5140,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:04 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:39 +0000</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5308,12 +5308,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5350,12 +5350,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5392,12 +5392,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5434,12 +5434,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5476,12 +5476,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5518,12 +5518,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5560,12 +5560,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5602,12 +5602,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5644,12 +5644,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5686,12 +5686,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5728,12 +5728,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5770,12 +5770,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5812,12 +5812,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5896,12 +5896,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5980,12 +5980,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6022,12 +6022,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6106,12 +6106,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6148,12 +6148,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6190,12 +6190,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6232,12 +6232,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6274,12 +6274,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6316,12 +6316,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6400,12 +6400,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6442,12 +6442,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6484,12 +6484,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6568,12 +6568,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6610,12 +6610,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6652,12 +6652,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6694,12 +6694,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6736,12 +6736,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6778,12 +6778,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6820,12 +6820,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6904,12 +6904,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:05 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6946,12 +6946,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6988,12 +6988,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7030,12 +7030,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7072,12 +7072,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:40 +0000</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7114,12 +7114,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7156,12 +7156,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7240,12 +7240,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7282,12 +7282,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7324,12 +7324,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7366,12 +7366,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7408,12 +7408,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7450,12 +7450,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7492,12 +7492,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7534,12 +7534,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7576,12 +7576,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7618,12 +7618,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7702,12 +7702,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7744,12 +7744,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7786,12 +7786,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7828,12 +7828,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7870,12 +7870,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7912,12 +7912,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7954,12 +7954,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7996,12 +7996,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8038,12 +8038,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8080,12 +8080,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8122,12 +8122,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8164,12 +8164,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8206,12 +8206,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8248,12 +8248,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8290,12 +8290,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8332,12 +8332,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8374,12 +8374,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8416,12 +8416,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8500,12 +8500,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8542,12 +8542,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8584,12 +8584,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8626,12 +8626,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8668,12 +8668,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:06 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8710,12 +8710,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8752,12 +8752,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8794,12 +8794,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8836,12 +8836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8878,12 +8878,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:41 +0000</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8920,12 +8920,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8962,12 +8962,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9004,12 +9004,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9046,12 +9046,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9088,12 +9088,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9130,12 +9130,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9172,12 +9172,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9214,12 +9214,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9298,12 +9298,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9340,12 +9340,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9382,12 +9382,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9424,12 +9424,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9466,12 +9466,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9508,12 +9508,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9550,12 +9550,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9592,12 +9592,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9634,12 +9634,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9676,12 +9676,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9718,12 +9718,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9760,12 +9760,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9802,12 +9802,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9844,12 +9844,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9886,12 +9886,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9928,12 +9928,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9970,12 +9970,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -10012,12 +10012,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -10096,12 +10096,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -10138,12 +10138,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -10180,12 +10180,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10222,12 +10222,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10264,12 +10264,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10306,12 +10306,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10348,12 +10348,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:07 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10390,12 +10390,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10432,12 +10432,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10474,12 +10474,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10516,12 +10516,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10558,12 +10558,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10600,12 +10600,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10642,12 +10642,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10684,12 +10684,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10726,12 +10726,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10768,12 +10768,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10810,12 +10810,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:42 +0000</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10894,12 +10894,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10936,12 +10936,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10978,12 +10978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -11020,12 +11020,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -11062,12 +11062,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -11104,12 +11104,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -11146,12 +11146,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -11188,12 +11188,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11230,12 +11230,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11272,12 +11272,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11314,12 +11314,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11356,12 +11356,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11398,12 +11398,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11440,12 +11440,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11482,12 +11482,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11524,12 +11524,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11566,12 +11566,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11608,12 +11608,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11650,12 +11650,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11692,12 +11692,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11734,12 +11734,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11776,12 +11776,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>172.19.0.1</t>
+          <t>172.20.0.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>15/May/2024:12:42:08 +0000</t>
+          <t>20/May/2024:06:01:43 +0000</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11810,4416 +11810,6 @@
         </is>
       </c>
       <c r="H271" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:08 +0000</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:09 +0000</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:10 +0000</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:11 +0000</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:11 +0000</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:11 +0000</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:11 +0000</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>HACKER</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>172.19.0.1</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>15/May/2024:12:42:11 +0000</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H376" t="inlineStr">
         <is>
           <t>HACKER</t>
         </is>
